--- a/data/friendship_link_data.xlsx
+++ b/data/friendship_link_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Java\jianyuluntan\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B82B98D-2465-4C72-8B77-59FB445A636B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BD6D42-51C9-4517-B96A-99CD8D968CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>https://baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu,com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -123,6 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,6 +505,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>123</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -503,17 +568,23 @@
     <hyperlink ref="B3:B4" r:id="rId2" display="http://baidu.com" xr:uid="{3360049E-E4FB-4275-8980-4DA17980BB49}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{234CEEE9-BA18-4B67-B9B0-3AA010A5B223}"/>
     <hyperlink ref="B9:B10" r:id="rId4" display="https://baidu.com" xr:uid="{1D8F6D22-1E68-4AFD-A1EA-CC2C020770A0}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{6F3ADADC-15C5-4196-AFED-5DB0DAE14BCE}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{D55CDE29-84B2-4575-AC35-579BD37E2D87}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{898681FB-0BD8-4FB4-88AF-B5DC5ADD3804}"/>
+    <hyperlink ref="B15:B16" r:id="rId8" display="www.baidu,com" xr:uid="{A7BF45B9-E749-4D9F-8EE1-FF85C06B0BD7}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{8E3888D5-DAF1-415F-ABEE-F85FB22C1DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E46F87D-0734-4D0A-A938-0A21269A83CE}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,6 +617,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
